--- a/InputData/trans/ECpV/Embedded Carbon per Vehicle.xlsx
+++ b/InputData/trans/ECpV/Embedded Carbon per Vehicle.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sharepoint\World Resources Institute\TRAC City - 文档\HK 2050 is now\InputData FOR HONG KONG\UPDATE InputData for Hong Kong\InputData\trans\ECpV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipP\InputData\trans\ECpV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="08ACCF5FE017A39DBB978276F75B10AE1CC194B8" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="480" yWindow="90" windowWidth="23955" windowHeight="13110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="23955" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,12 +18,12 @@
     <sheet name="ECpV-psgr" sheetId="2" r:id="rId4"/>
     <sheet name="ECpV-frgt" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>PE International</t>
   </si>
@@ -119,15 +118,9 @@
     <t>plugin hybrid vehicle</t>
   </si>
   <si>
-    <t>nonroad vehicle</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>The unit is metric tons of CO2e.</t>
-  </si>
-  <si>
     <t>We estimate embedded carbon in vehicle types other than passenger LDVs by scaling the embedded carbon in</t>
   </si>
   <si>
@@ -180,20 +173,44 @@
   </si>
   <si>
     <t>See BNVP variable.</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>We don't have data for hydrogen fuel cell vehicles, so we assume</t>
+  </si>
+  <si>
+    <t>their embedded carbon is similar to that of PHEVs.</t>
+  </si>
+  <si>
+    <t>Embedded Carbon (metric tons CO2e/vehicle</t>
+  </si>
+  <si>
+    <t>This variable represents the GHG emissions associated with vehicle</t>
+  </si>
+  <si>
+    <t>production, reported in metric tons CO2e per vehicle.</t>
+  </si>
+  <si>
+    <t>Start Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -201,7 +218,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -209,7 +226,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -217,14 +234,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -232,7 +249,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -240,19 +257,18 @@
       <b/>
       <sz val="12"/>
       <color theme="4"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +278,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +359,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -353,20 +381,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="2"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="4"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,23 +498,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -509,23 +533,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -701,22 +708,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58.75" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -724,75 +731,92 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>37</v>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="http://www.lowcvp.org.uk/assets/reports/CONFERENCE 2013 Final Report_Lifecycle CO2 Assessment of Low Carbon Cars 2020-2030_PEJuly2013.pdf" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -800,22 +824,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="12.25" customWidth="1"/>
+    <col min="1" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
@@ -841,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -870,7 +894,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -899,7 +923,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -928,7 +952,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -958,137 +982,139 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="11" width="14.25" customWidth="1"/>
-    <col min="12" max="13" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="13" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="10">
-        <v>66733.274166000003</v>
+        <v>50758.840541774327</v>
       </c>
       <c r="C2" s="10">
-        <v>63555.320858571446</v>
+        <v>80512.080109999981</v>
       </c>
       <c r="D2" s="10">
-        <v>777558.88623342291</v>
+        <v>703780</v>
       </c>
       <c r="E2" s="10">
-        <v>215046.42741217426</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>206127.38518562954</v>
+      </c>
+      <c r="F2" s="17">
+        <v>94933107.191416278</v>
+      </c>
+      <c r="G2" s="17">
+        <v>94933107.191416278</v>
+      </c>
+      <c r="H2" s="10">
+        <v>3660659.6603373885</v>
+      </c>
+      <c r="I2" s="10">
+        <v>3660659.6603373885</v>
+      </c>
+      <c r="J2" s="10">
+        <v>43927.915924048662</v>
+      </c>
+      <c r="K2" s="10">
+        <v>14642638.641349554</v>
       </c>
       <c r="L2" s="10">
-        <v>15992.05339289682</v>
+        <v>14759.423945652174</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="10">
-        <v>45171.020185999994</v>
+        <v>38287.706053517766</v>
       </c>
       <c r="C3" s="10">
-        <v>43848.481093999995</v>
+        <v>65223.591570561439</v>
       </c>
       <c r="D3" s="10">
-        <v>513514.64247010724</v>
+        <v>489601.85316835809</v>
       </c>
       <c r="E3" s="10">
-        <v>142020.7411196451</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+        <v>135407.27428151103</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
         <v>0</v>
       </c>
       <c r="L3">
@@ -1098,15 +1124,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10">
-        <v>37472.661407999993</v>
+      <c r="B4" s="19">
+        <v>30882.93891032293</v>
       </c>
       <c r="C4" s="10">
-        <v>35338.939199</v>
+        <v>58361.792809999999</v>
       </c>
       <c r="D4" s="10">
         <v>480637.41599999997</v>
@@ -1114,64 +1140,64 @@
       <c r="E4" s="10">
         <v>132928.01486984815</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>30000</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19">
         <v>8980</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="10">
-        <v>41250.262873</v>
+        <v>32733.505566166878</v>
       </c>
       <c r="C5" s="10">
-        <v>41041.128928999999</v>
+        <v>64029.370624000003</v>
       </c>
       <c r="D5" s="10">
         <v>480637.41599999997</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="19">
         <v>132928.01486984815</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="F5" s="17">
+        <v>64833333.333333336</v>
+      </c>
+      <c r="G5" s="17">
+        <v>64833333.333333336</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2500000</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2500000</v>
+      </c>
+      <c r="J5" s="10">
+        <v>30000</v>
+      </c>
+      <c r="K5" s="10">
+        <v>10000000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1180,38 +1206,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="10">
-        <v>56853.790958999998</v>
+        <v>38021.991142086437</v>
       </c>
       <c r="C6" s="10">
-        <v>51017.118906285701</v>
+        <v>54775.354912666604</v>
       </c>
       <c r="D6" s="10">
-        <v>662445.69787272683</v>
+        <v>558290.08404758247</v>
       </c>
       <c r="E6" s="10">
-        <v>183210.02203726224</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+        <v>154404.11029915701</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
         <v>0</v>
       </c>
       <c r="L6">
@@ -1221,39 +1247,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>64833333.333333336</v>
-      </c>
-      <c r="G7" s="10">
-        <v>64833333.333333336</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="10">
+        <v>39464.208493999999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>72501.771649563496</v>
+      </c>
+      <c r="D7" s="10">
+        <v>614189.4477763311</v>
+      </c>
+      <c r="E7" s="10">
+        <v>150517.12184581585</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
       </c>
       <c r="H7" s="10">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="10">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="10">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="10">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1262,31 +1288,74 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="10">
+        <v>71671.802858802301</v>
+      </c>
+      <c r="C8" s="10">
+        <v>82293.84992932812</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1115442.7441684157</v>
+      </c>
+      <c r="E8" s="10">
+        <v>170845.9414873973</v>
+      </c>
+      <c r="F8" s="17">
+        <v>150462425.18688756</v>
+      </c>
+      <c r="G8" s="17">
+        <v>150462425.18688756</v>
+      </c>
+      <c r="H8" s="10">
+        <v>5801893.0020650728</v>
+      </c>
+      <c r="I8" s="10">
+        <v>5801893.0020650728</v>
+      </c>
+      <c r="J8" s="10">
+        <v>69622.716024780879</v>
+      </c>
+      <c r="K8" s="10">
+        <v>23207572.008260291</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="7" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
@@ -1303,10 +1372,13 @@
         <v>30</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1330,124 +1402,155 @@
         <f>SUM('PE 8-8'!B5:C5)</f>
         <v>8.01</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G2" s="9">
+        <f>SUM('PE 8-8'!B3:C3)</f>
+        <v>6.4399999999999995</v>
+      </c>
+      <c r="H2" s="9">
+        <f>F2</f>
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="9">
         <f>B2*('Data from BNVP'!D2/'Data from BNVP'!B2)</f>
-        <v>127.70309114340176</v>
+        <v>151.96227332363668</v>
       </c>
       <c r="C3" s="9">
         <f>C2*('Data from BNVP'!D3/'Data from BNVP'!B3)</f>
-        <v>73.211414838322611</v>
+        <v>82.351131979465606</v>
       </c>
       <c r="D3" s="9">
         <f>D2*('Data from BNVP'!D4/'Data from BNVP'!B4)</f>
-        <v>82.60168460784017</v>
+        <v>100.22702075175117</v>
       </c>
       <c r="E3" s="9">
         <f>E2*('Data from BNVP'!D5/'Data from BNVP'!B5)</f>
-        <v>75.037217788641158</v>
+        <v>94.560753744606117</v>
       </c>
       <c r="F3" s="9">
         <f>F2*('Data from BNVP'!D6/'Data from BNVP'!B6)</f>
-        <v>93.330452560095608</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>117.61360830656756</v>
+      </c>
+      <c r="G3" s="9">
+        <f>G2*('Data from BNVP'!D7/'Data from BNVP'!B7)</f>
+        <v>100.22702075175116</v>
+      </c>
+      <c r="H3" s="9">
+        <f>F3</f>
+        <v>117.61360830656756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="B4" s="9">
+        <f t="shared" ref="B4:D5" si="0">$E4</f>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="E4" s="9">
+        <f>D2*('Data from BNVP'!F5/'Data from BNVP'!B4)</f>
+        <v>13519.654585953418</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
-        <f>D2*('Data from BNVP'!F7/'Data from BNVP'!B4)</f>
-        <v>11142.167408945483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f>$E4</f>
+        <v>13519.654585953418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="B5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="E5" s="9">
+        <f>D2*('Data from BNVP'!H5/'Data from BNVP'!B4)</f>
+        <v>521.32344161774108</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
-        <f>D2*('Data from BNVP'!H7/'Data from BNVP'!B4)</f>
-        <v>429.64655818555843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f>$E5</f>
+        <v>521.32344161774108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="B6" s="9">
+        <f t="shared" ref="B6:D6" si="1">$E6</f>
+        <v>6.2558812994128923</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>6.2558812994128923</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="1"/>
+        <v>6.2558812994128923</v>
+      </c>
+      <c r="E6" s="9">
+        <f>D2*('Data from BNVP'!J5/'Data from BNVP'!B4)</f>
+        <v>6.2558812994128923</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
-        <f>D2*('Data from BNVP'!J7/'Data from BNVP'!B4)</f>
-        <v>5.155758698226701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>$E6</f>
+        <v>6.2558812994128923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="9">
         <f>B2*('Data from BNVP'!L2/'Data from BNVP'!B2)</f>
-        <v>2.6264694393707586</v>
+        <v>3.1868987691162349</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" s="9">
         <f>D2*('Data from BNVP'!L4/'Data from BNVP'!B4)</f>
-        <v>1.543290437002526</v>
+        <v>1.8725938022909256</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1458,32 +1561,37 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="7" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
@@ -1500,138 +1608,172 @@
         <v>30</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="9">
         <f>'ECpV-psgr'!B2*('Data from BNVP'!C2/'Data from BNVP'!B2)</f>
-        <v>10.438065947089965</v>
+        <v>17.384408087087369</v>
       </c>
       <c r="C2" s="9">
         <f>'ECpV-psgr'!C2*('Data from BNVP'!C3/'Data from BNVP'!B3)</f>
-        <v>6.2514465487516313</v>
+        <v>10.970621460771049</v>
       </c>
       <c r="D2" s="9">
         <f>'ECpV-psgr'!D2*('Data from BNVP'!C4/'Data from BNVP'!B4)</f>
-        <v>6.0733014387116269</v>
+        <v>12.170148274676293</v>
       </c>
       <c r="E2" s="9">
         <f>'ECpV-psgr'!E2*('Data from BNVP'!C5/'Data from BNVP'!B5)</f>
-        <v>6.4073499632352258</v>
+        <v>12.597158162148119</v>
       </c>
       <c r="F2" s="9">
         <f>'ECpV-psgr'!F2*('Data from BNVP'!C6/'Data from BNVP'!B6)</f>
-        <v>7.1876846828744201</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11.539390223170289</v>
+      </c>
+      <c r="G2" s="9">
+        <f>'ECpV-psgr'!G2*('Data from BNVP'!C7/'Data from BNVP'!B7)</f>
+        <v>11.831262484186816</v>
+      </c>
+      <c r="H2" s="9">
+        <f>F2</f>
+        <v>11.539390223170289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="9">
         <f>'ECpV-psgr'!B2*('Data from BNVP'!E2/'Data from BNVP'!B2)</f>
-        <v>35.318345666280131</v>
+        <v>44.507638817620816</v>
       </c>
       <c r="C3" s="9">
         <f>'ECpV-psgr'!C2*('Data from BNVP'!E3/'Data from BNVP'!B3)</f>
-        <v>20.24779535738676</v>
+        <v>22.775531267243728</v>
       </c>
       <c r="D3" s="9">
         <f>'ECpV-psgr'!D2*('Data from BNVP'!E4/'Data from BNVP'!B4)</f>
-        <v>22.844825630107596</v>
+        <v>27.719396079745398</v>
       </c>
       <c r="E3" s="9">
         <f>'ECpV-psgr'!E2*('Data from BNVP'!E5/'Data from BNVP'!B5)</f>
-        <v>20.752750555733943</v>
+        <v>26.152298721302735</v>
       </c>
       <c r="F3" s="9">
         <f>'ECpV-psgr'!F2*('Data from BNVP'!E6/'Data from BNVP'!B6)</f>
-        <v>25.812039122892688</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>32.527936763607912</v>
+      </c>
+      <c r="G3" s="9">
+        <f>'ECpV-psgr'!G2*('Data from BNVP'!E7/'Data from BNVP'!B7)</f>
+        <v>24.562262913100806</v>
+      </c>
+      <c r="H3" s="9">
+        <f>F3</f>
+        <v>32.527936763607912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="B4" s="9">
+        <f t="shared" ref="B4:D6" si="0">$E4</f>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="E4" s="9">
+        <f>'ECpV-psgr'!D2*('Data from BNVP'!G5/'Data from BNVP'!B4)</f>
+        <v>13519.654585953418</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
-        <f>'ECpV-psgr'!D2*('Data from BNVP'!G7/'Data from BNVP'!B4)</f>
-        <v>11142.167408945483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f>$E4</f>
+        <v>13519.654585953418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="B5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="E5" s="9">
+        <f>'ECpV-psgr'!D2*('Data from BNVP'!I5/'Data from BNVP'!B4)</f>
+        <v>521.32344161774108</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
-        <f>'ECpV-psgr'!D2*('Data from BNVP'!I7/'Data from BNVP'!B4)</f>
-        <v>429.64655818555843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f>$E5</f>
+        <v>521.32344161774108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="B6" s="9">
+        <f t="shared" si="0"/>
+        <v>2085.2937664709643</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>2085.2937664709643</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>2085.2937664709643</v>
+      </c>
+      <c r="E6" s="9">
+        <f>'ECpV-psgr'!D2*('Data from BNVP'!K5/'Data from BNVP'!B4)</f>
+        <v>2085.2937664709643</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
-        <f>'ECpV-psgr'!D2*('Data from BNVP'!K7/'Data from BNVP'!B4)</f>
-        <v>1718.5862327422337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>$E6</f>
+        <v>2085.2937664709643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1653,23 +1795,16 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1903,6 +2038,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1913,30 +2057,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65D2F1BA-5129-4873-986C-7537ADE2DEFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585ABF02-61FD-4B1F-9B06-41E8683FAD04}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CE6D487-D973-4A5A-BC94-CB75B089E58C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43C811D3-418D-43F0-A2A1-9FD7788AFEBA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BB4043A-6B33-4D8F-8774-33857F78E473}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FCDFBD3-BB82-4194-9CD5-2D096F08039E}"/>
 </file>
--- a/InputData/trans/ECpV/Embedded Carbon per Vehicle.xlsx
+++ b/InputData/trans/ECpV/Embedded Carbon per Vehicle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipP\InputData\trans\ECpV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\ECpV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_8A79D327AD1AE88D9A1D6A86D5D5FC9AB7025814" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="23955" windowHeight="13110"/>
+    <workbookView xWindow="12720" yWindow="2310" windowWidth="15645" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,15 @@
     <sheet name="ECpV-psgr" sheetId="2" r:id="rId4"/>
     <sheet name="ECpV-frgt" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -202,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -400,14 +409,14 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="2"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="4"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,6 +507,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -533,6 +559,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,10 +751,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -816,7 +861,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -824,10 +869,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -987,7 +1034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1335,7 +1382,245 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="8" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9">
+        <f>SUM('PE 8-8'!B6:C6)</f>
+        <v>10.96</v>
+      </c>
+      <c r="C2" s="9">
+        <f>SUM('PE 8-8'!B3:C3)</f>
+        <v>6.4399999999999995</v>
+      </c>
+      <c r="D2" s="9">
+        <f>SUM('PE 8-8'!B3:C3)</f>
+        <v>6.4399999999999995</v>
+      </c>
+      <c r="E2" s="9">
+        <f>SUM('PE 8-8'!B3:C3)</f>
+        <v>6.4399999999999995</v>
+      </c>
+      <c r="F2" s="9">
+        <f>SUM('PE 8-8'!B5:C5)</f>
+        <v>8.01</v>
+      </c>
+      <c r="G2" s="9">
+        <f>SUM('PE 8-8'!B3:C3)</f>
+        <v>6.4399999999999995</v>
+      </c>
+      <c r="H2" s="9">
+        <f>F2</f>
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9">
+        <f>B2*('Data from BNVP'!D2/'Data from BNVP'!B2)</f>
+        <v>151.96227332363668</v>
+      </c>
+      <c r="C3" s="9">
+        <f>C2*('Data from BNVP'!D3/'Data from BNVP'!B3)</f>
+        <v>82.351131979465606</v>
+      </c>
+      <c r="D3" s="9">
+        <f>D2*('Data from BNVP'!D4/'Data from BNVP'!B4)</f>
+        <v>100.22702075175117</v>
+      </c>
+      <c r="E3" s="9">
+        <f>E2*('Data from BNVP'!D5/'Data from BNVP'!B5)</f>
+        <v>94.560753744606117</v>
+      </c>
+      <c r="F3" s="9">
+        <f>F2*('Data from BNVP'!D6/'Data from BNVP'!B6)</f>
+        <v>117.61360830656756</v>
+      </c>
+      <c r="G3" s="9">
+        <f>G2*('Data from BNVP'!D7/'Data from BNVP'!B7)</f>
+        <v>100.22702075175116</v>
+      </c>
+      <c r="H3" s="9">
+        <f>F3</f>
+        <v>117.61360830656756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" ref="B4:D5" si="0">$E4</f>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="E4" s="9">
+        <f>D2*('Data from BNVP'!F5/'Data from BNVP'!B4)</f>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f>$E4</f>
+        <v>13519.654585953418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="E5" s="9">
+        <f>D2*('Data from BNVP'!H5/'Data from BNVP'!B4)</f>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f>$E5</f>
+        <v>521.32344161774108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" ref="B6:D6" si="1">$E6</f>
+        <v>6.2558812994128923</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>6.2558812994128923</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="1"/>
+        <v>6.2558812994128923</v>
+      </c>
+      <c r="E6" s="9">
+        <f>D2*('Data from BNVP'!J5/'Data from BNVP'!B4)</f>
+        <v>6.2558812994128923</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>$E6</f>
+        <v>6.2558812994128923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="9">
+        <f>B2*('Data from BNVP'!L2/'Data from BNVP'!B2)</f>
+        <v>3.1868987691162349</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <f>D2*('Data from BNVP'!L4/'Data from BNVP'!B4)</f>
+        <v>1.8725938022909256</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1383,242 +1668,6 @@
         <v>20</v>
       </c>
       <c r="B2" s="9">
-        <f>SUM('PE 8-8'!B6:C6)</f>
-        <v>10.96</v>
-      </c>
-      <c r="C2" s="9">
-        <f>SUM('PE 8-8'!B3:C3)</f>
-        <v>6.4399999999999995</v>
-      </c>
-      <c r="D2" s="9">
-        <f>SUM('PE 8-8'!B3:C3)</f>
-        <v>6.4399999999999995</v>
-      </c>
-      <c r="E2" s="9">
-        <f>SUM('PE 8-8'!B3:C3)</f>
-        <v>6.4399999999999995</v>
-      </c>
-      <c r="F2" s="9">
-        <f>SUM('PE 8-8'!B5:C5)</f>
-        <v>8.01</v>
-      </c>
-      <c r="G2" s="9">
-        <f>SUM('PE 8-8'!B3:C3)</f>
-        <v>6.4399999999999995</v>
-      </c>
-      <c r="H2" s="9">
-        <f>F2</f>
-        <v>8.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9">
-        <f>B2*('Data from BNVP'!D2/'Data from BNVP'!B2)</f>
-        <v>151.96227332363668</v>
-      </c>
-      <c r="C3" s="9">
-        <f>C2*('Data from BNVP'!D3/'Data from BNVP'!B3)</f>
-        <v>82.351131979465606</v>
-      </c>
-      <c r="D3" s="9">
-        <f>D2*('Data from BNVP'!D4/'Data from BNVP'!B4)</f>
-        <v>100.22702075175117</v>
-      </c>
-      <c r="E3" s="9">
-        <f>E2*('Data from BNVP'!D5/'Data from BNVP'!B5)</f>
-        <v>94.560753744606117</v>
-      </c>
-      <c r="F3" s="9">
-        <f>F2*('Data from BNVP'!D6/'Data from BNVP'!B6)</f>
-        <v>117.61360830656756</v>
-      </c>
-      <c r="G3" s="9">
-        <f>G2*('Data from BNVP'!D7/'Data from BNVP'!B7)</f>
-        <v>100.22702075175116</v>
-      </c>
-      <c r="H3" s="9">
-        <f>F3</f>
-        <v>117.61360830656756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9">
-        <f t="shared" ref="B4:D5" si="0">$E4</f>
-        <v>13519.654585953418</v>
-      </c>
-      <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>13519.654585953418</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" si="0"/>
-        <v>13519.654585953418</v>
-      </c>
-      <c r="E4" s="9">
-        <f>D2*('Data from BNVP'!F5/'Data from BNVP'!B4)</f>
-        <v>13519.654585953418</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <f>$E4</f>
-        <v>13519.654585953418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="9">
-        <f t="shared" si="0"/>
-        <v>521.32344161774108</v>
-      </c>
-      <c r="C5" s="9">
-        <f t="shared" si="0"/>
-        <v>521.32344161774108</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>521.32344161774108</v>
-      </c>
-      <c r="E5" s="9">
-        <f>D2*('Data from BNVP'!H5/'Data from BNVP'!B4)</f>
-        <v>521.32344161774108</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <f>$E5</f>
-        <v>521.32344161774108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="9">
-        <f t="shared" ref="B6:D6" si="1">$E6</f>
-        <v>6.2558812994128923</v>
-      </c>
-      <c r="C6" s="9">
-        <f t="shared" si="1"/>
-        <v>6.2558812994128923</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" si="1"/>
-        <v>6.2558812994128923</v>
-      </c>
-      <c r="E6" s="9">
-        <f>D2*('Data from BNVP'!J5/'Data from BNVP'!B4)</f>
-        <v>6.2558812994128923</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <f>$E6</f>
-        <v>6.2558812994128923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="9">
-        <f>B2*('Data from BNVP'!L2/'Data from BNVP'!B2)</f>
-        <v>3.1868987691162349</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <f>D2*('Data from BNVP'!L4/'Data from BNVP'!B4)</f>
-        <v>1.8725938022909256</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="8" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="9">
         <f>'ECpV-psgr'!B2*('Data from BNVP'!C2/'Data from BNVP'!B2)</f>
         <v>17.384408087087369</v>
       </c>
@@ -1805,6 +1854,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2038,32 +2105,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585ABF02-61FD-4B1F-9B06-41E8683FAD04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FCDFBD3-BB82-4194-9CD5-2D096F08039E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43C811D3-418D-43F0-A2A1-9FD7788AFEBA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43C811D3-418D-43F0-A2A1-9FD7788AFEBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FCDFBD3-BB82-4194-9CD5-2D096F08039E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585ABF02-61FD-4B1F-9B06-41E8683FAD04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>